--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -656,13 +656,13 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -680,13 +680,13 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
         <v>12</v>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -707,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -731,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -769,22 +769,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -802,7 +802,7 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>2.2</v>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -891,22 +891,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>8.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M4" t="n">
         <v>6</v>
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
         <v>9.5</v>
@@ -948,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
@@ -963,7 +963,7 @@
         <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1028,16 +1028,16 @@
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
         <v>1.44</v>
@@ -1207,7 +1207,7 @@
         <v>201</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
@@ -1391,7 +1391,7 @@
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>41</v>
@@ -1504,7 +1504,7 @@
         <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
@@ -1522,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.29</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L10" t="n">
         <v>1.11</v>
@@ -1644,40 +1644,40 @@
         <v>6.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O10" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="P10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W10" t="n">
         <v>7.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>19</v>
@@ -1686,31 +1686,31 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1748,7 +1748,7 @@
         <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1757,7 +1757,7 @@
         <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" t="n">
         <v>1.13</v>
@@ -1772,7 +1772,7 @@
         <v>2.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q11" t="n">
         <v>4</v>
@@ -1867,70 +1867,70 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.05</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.02</v>
       </c>
       <c r="S12" t="n">
         <v>1.7</v>
       </c>
       <c r="T12" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="V12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W12" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X12" t="n">
         <v>50</v>
       </c>
       <c r="Y12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>120</v>
@@ -1939,19 +1939,19 @@
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>45</v>
@@ -2231,19 +2231,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>1.42</v>
@@ -2258,19 +2258,19 @@
         <v>1.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U16" t="n">
         <v>10.25</v>
@@ -2279,7 +2279,7 @@
         <v>9.25</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
@@ -2288,25 +2288,25 @@
         <v>35</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.25</v>
@@ -2475,27 +2475,27 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N18" t="n">
         <v>1.6</v>
       </c>
       <c r="O18" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -2503,22 +2503,22 @@
         <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T18" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U18" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
         <v>22</v>
@@ -2527,34 +2527,34 @@
         <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD18" t="n">
         <v>350</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2589,19 +2589,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.4</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2610,46 +2610,46 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
@@ -2664,13 +2664,13 @@
         <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -2717,31 +2717,31 @@
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
         <v>1.91</v>
@@ -2833,13 +2833,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2854,13 +2854,13 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O21" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
@@ -2890,7 +2890,7 @@
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>1.1</v>
@@ -2982,7 +2982,7 @@
         <v>1.53</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
         <v>2.5</v>
@@ -2997,10 +2997,10 @@
         <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W22" t="n">
         <v>17</v>
@@ -3024,13 +3024,13 @@
         <v>67</v>
       </c>
       <c r="AD22" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE22" t="n">
         <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -3042,7 +3042,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -3077,13 +3077,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -3092,64 +3092,64 @@
         <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.95</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
       </c>
       <c r="Y23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
         <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -3199,7 +3199,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
@@ -3214,22 +3214,22 @@
         <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
         <v>1.95</v>
@@ -3247,7 +3247,7 @@
         <v>9</v>
       </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3256,13 +3256,13 @@
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
@@ -3283,7 +3283,7 @@
         <v>41</v>
       </c>
       <c r="AI24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3345,7 +3345,7 @@
         <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P25" t="n">
         <v>1.37</v>
@@ -3360,7 +3360,7 @@
         <v>1.95</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
         <v>15</v>
@@ -3393,7 +3393,7 @@
         <v>251</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3402,10 +3402,10 @@
         <v>9.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -3443,25 +3443,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K26" t="n">
+        <v>9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M26" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.4</v>
       </c>
       <c r="N26" t="n">
         <v>2.03</v>
@@ -3470,7 +3470,7 @@
         <v>1.83</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q26" t="n">
         <v>2.75</v>
@@ -3482,16 +3482,16 @@
         <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U26" t="n">
         <v>9</v>
       </c>
       <c r="V26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
         <v>15</v>
@@ -3500,13 +3500,13 @@
         <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>51</v>
@@ -3515,16 +3515,16 @@
         <v>251</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="n">
         <v>34</v>
@@ -3568,7 +3568,7 @@
         <v>2.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
         <v>2.55</v>
@@ -3580,31 +3580,31 @@
         <v>8.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N27" t="n">
         <v>2.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U27" t="n">
         <v>13</v>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3708,13 +3708,13 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O28" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
         <v>3.25</v>
@@ -3812,7 +3812,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I29" t="n">
         <v>1.18</v>
@@ -4007,13 +4007,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H32" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.02</v>
@@ -4028,10 +4028,10 @@
         <v>5.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="O32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
@@ -4040,22 +4040,22 @@
         <v>3.75</v>
       </c>
       <c r="R32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S32" t="n">
         <v>1.8</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.95</v>
       </c>
       <c r="T32" t="n">
         <v>9</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V32" t="n">
         <v>9</v>
       </c>
       <c r="W32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -4064,28 +4064,28 @@
         <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
         <v>11</v>
       </c>
       <c r="AB32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC32" t="n">
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH32" t="n">
         <v>101</v>
@@ -4132,28 +4132,28 @@
         <v>1.2</v>
       </c>
       <c r="H33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O33" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P33" t="n">
         <v>1.25</v>
@@ -4162,10 +4162,10 @@
         <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T33" t="n">
         <v>8</v>
@@ -4174,7 +4174,7 @@
         <v>6.5</v>
       </c>
       <c r="V33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
         <v>7</v>
@@ -4189,13 +4189,13 @@
         <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="n">
         <v>351</v>
@@ -4260,10 +4260,10 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.29</v>
@@ -4442,7 +4442,7 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE35" t="n">
         <v>12</v>
@@ -4495,13 +4495,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J36" t="n">
         <v>21</v>
@@ -4516,10 +4516,10 @@
         <v>5.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O36" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="P36" t="n">
         <v>1.22</v>
@@ -4528,28 +4528,28 @@
         <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T36" t="n">
         <v>17</v>
       </c>
       <c r="U36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V36" t="n">
         <v>12</v>
       </c>
       <c r="W36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
         <v>21</v>
@@ -4573,7 +4573,7 @@
         <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>21</v>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4679,13 +4679,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I38" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -656,22 +656,22 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O4" t="n">
         <v>2.7</v>
@@ -1144,10 +1144,10 @@
         <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
         <v>1.29</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V7" t="n">
         <v>11</v>
@@ -1388,10 +1388,10 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1632,13 +1632,13 @@
         <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
         <v>21</v>
       </c>
       <c r="L10" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M10" t="n">
         <v>6.5</v>
@@ -1754,13 +1754,13 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
         <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M11" t="n">
         <v>6</v>
@@ -1989,90 +1989,90 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
-        <v>2.57</v>
+        <v>2.37</v>
       </c>
       <c r="N13" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T13" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="V13" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD13" t="n">
         <v>900</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -2106,36 +2106,96 @@
           <t>Dubrava</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2168,36 +2228,96 @@
           <t>Nueve de Octubre</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>37</v>
+      </c>
+      <c r="X15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2234,7 +2354,7 @@
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
         <v>3.25</v>
@@ -2261,7 +2381,7 @@
         <v>1.47</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R16" t="n">
         <v>1.87</v>
@@ -2270,7 +2390,7 @@
         <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U16" t="n">
         <v>10.25</v>
@@ -2282,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
         <v>35</v>
@@ -2291,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB16" t="n">
         <v>14.5</v>
@@ -2306,10 +2426,10 @@
         <v>8.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>45</v>
@@ -2318,7 +2438,7 @@
         <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2353,13 +2473,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>2.85</v>
       </c>
       <c r="I17" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>1.11</v>
@@ -2371,7 +2491,7 @@
         <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N17" t="n">
         <v>2.37</v>
@@ -2380,10 +2500,10 @@
         <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R17" t="n">
         <v>1.95</v>
@@ -2395,7 +2515,7 @@
         <v>7.8</v>
       </c>
       <c r="U17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V17" t="n">
         <v>11.5</v>
@@ -2404,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="X17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
         <v>45</v>
@@ -2416,7 +2536,7 @@
         <v>5.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
         <v>90</v>
@@ -2425,22 +2545,22 @@
         <v>900</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF17" t="n">
         <v>10.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2964,22 +3084,22 @@
         <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -3098,10 +3218,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3327,7 +3447,7 @@
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
         <v>1.07</v>
@@ -3345,10 +3465,10 @@
         <v>2.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
         <v>2.75</v>
@@ -3443,7 +3563,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
@@ -3470,7 +3590,7 @@
         <v>1.83</v>
       </c>
       <c r="P26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q26" t="n">
         <v>2.75</v>
@@ -3565,13 +3685,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
         <v>1.07</v>
@@ -3589,13 +3709,13 @@
         <v>2.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P27" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R27" t="n">
         <v>1.8</v>
@@ -3687,7 +3807,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
         <v>4.1</v>
@@ -3708,13 +3828,13 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O28" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q28" t="n">
         <v>3.25</v>
@@ -3809,41 +3929,83 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.6</v>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T29" t="n">
+        <v>30</v>
+      </c>
+      <c r="U29" t="n">
+        <v>90</v>
+      </c>
+      <c r="V29" t="n">
+        <v>35</v>
+      </c>
+      <c r="W29" t="n">
+        <v>350</v>
+      </c>
+      <c r="X29" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3877,41 +4039,91 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="V30" t="n">
+        <v>7</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3944,36 +4156,96 @@
           <t>Difaa El Jadidi</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6</v>
+      </c>
+      <c r="V31" t="n">
+        <v>9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4016,19 +4288,19 @@
         <v>9.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K32" t="n">
         <v>19</v>
       </c>
       <c r="L32" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M32" t="n">
         <v>5.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O32" t="n">
         <v>2.6</v>
@@ -4138,19 +4410,19 @@
         <v>13</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
         <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M33" t="n">
         <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O33" t="n">
         <v>2.5</v>
@@ -4260,13 +4532,13 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
         <v>8.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
         <v>3.5</v>
@@ -4394,10 +4666,10 @@
         <v>3.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O35" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P35" t="n">
         <v>1.36</v>
@@ -4495,19 +4767,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H36" t="n">
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J36" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
         <v>1.13</v>
@@ -4516,10 +4788,10 @@
         <v>5.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O36" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="P36" t="n">
         <v>1.22</v>
@@ -4534,19 +4806,19 @@
         <v>2.75</v>
       </c>
       <c r="T36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U36" t="n">
         <v>19</v>
       </c>
       <c r="V36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W36" t="n">
         <v>29</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>21</v>
@@ -4576,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
         <v>15</v>
@@ -4682,73 +4954,73 @@
         <v>1.37</v>
       </c>
       <c r="H38" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O38" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="P38" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T38" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U38" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z38" t="n">
         <v>8.5</v>
       </c>
-      <c r="X38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB38" t="n">
         <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD38" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE38" t="n">
         <v>18.5</v>
@@ -4757,16 +5029,16 @@
         <v>45</v>
       </c>
       <c r="AG38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH38" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -656,22 +656,22 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O4" t="n">
         <v>2.7</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1632,13 +1632,13 @@
         <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
         <v>21</v>
       </c>
       <c r="L10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M10" t="n">
         <v>6.5</v>
@@ -1754,13 +1754,13 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
         <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M11" t="n">
         <v>6</v>
@@ -2116,13 +2116,13 @@
         <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
         <v>8.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="J15" t="n">
         <v>1.11</v>
@@ -2250,16 +2250,16 @@
         <v>2.27</v>
       </c>
       <c r="N15" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
         <v>2</v>
@@ -2268,28 +2268,28 @@
         <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="V15" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="W15" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB15" t="n">
         <v>17.5</v>
@@ -2301,22 +2301,22 @@
         <v>101</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
         <v>1.1</v>
@@ -2372,7 +2372,7 @@
         <v>2.67</v>
       </c>
       <c r="N16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.6</v>
@@ -2384,61 +2384,61 @@
         <v>2.52</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
         <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="U16" t="n">
         <v>10.25</v>
       </c>
       <c r="V16" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
         <v>6</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="n">
         <v>700</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AH16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>45</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.11</v>
@@ -2491,19 +2491,19 @@
         <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N17" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
         <v>1.95</v>
@@ -2515,19 +2515,19 @@
         <v>7.8</v>
       </c>
       <c r="U17" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z17" t="n">
         <v>5.6</v>
@@ -2545,22 +2545,22 @@
         <v>900</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -3945,15 +3945,15 @@
         <v>1.45</v>
       </c>
       <c r="O29" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S29" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="T29" t="n">
         <v>30</v>
@@ -4039,90 +4039,90 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="H30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M30" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="N30" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P30" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U30" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="V30" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="W30" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="X30" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>55</v>
       </c>
       <c r="AD30" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AI30" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AJ30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -4157,70 +4157,70 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L31" t="n">
         <v>1.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.4</v>
-      </c>
       <c r="M31" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R31" t="n">
         <v>2.25</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.38</v>
-      </c>
       <c r="S31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T31" t="n">
         <v>5</v>
       </c>
       <c r="U31" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>81</v>
@@ -4229,22 +4229,22 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>51</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -4288,13 +4288,13 @@
         <v>9.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
         <v>19</v>
       </c>
       <c r="L32" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M32" t="n">
         <v>5.5</v>
@@ -4410,13 +4410,13 @@
         <v>13</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
         <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M33" t="n">
         <v>5.5</v>
@@ -4532,13 +4532,13 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
         <v>8.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
         <v>3.5</v>
@@ -4666,10 +4666,10 @@
         <v>3.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P35" t="n">
         <v>1.36</v>
@@ -4888,36 +4888,96 @@
           <t>Bani Yas</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T37" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -790,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -1028,10 +1028,10 @@
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
         <v>2.25</v>
@@ -1296,7 +1296,7 @@
         <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
         <v>17</v>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1388,10 +1388,10 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
         <v>1.11</v>
@@ -2244,73 +2244,73 @@
         <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="N15" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T15" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="U15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V15" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="W15" t="n">
+        <v>37</v>
+      </c>
+      <c r="X15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y15" t="n">
         <v>45</v>
       </c>
-      <c r="X15" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>55</v>
-      </c>
       <c r="Z15" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD15" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE15" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H16" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
         <v>3.35</v>
@@ -2363,7 +2363,7 @@
         <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.42</v>
@@ -2372,28 +2372,28 @@
         <v>2.67</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O16" t="n">
         <v>1.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
         <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U16" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
@@ -2408,13 +2408,13 @@
         <v>32</v>
       </c>
       <c r="Z16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
         <v>80</v>
@@ -2435,7 +2435,7 @@
         <v>50</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ16" t="n">
         <v>45</v>
@@ -2595,13 +2595,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2623,22 +2623,22 @@
         <v>1.6</v>
       </c>
       <c r="S18" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U18" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>22</v>
@@ -2647,31 +2647,31 @@
         <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD18" t="n">
         <v>350</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
         <v>32</v>
@@ -2831,19 +2831,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2855,7 +2855,7 @@
         <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2870,10 +2870,10 @@
         <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V20" t="n">
         <v>12</v>
@@ -2918,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
@@ -3007,10 +3007,10 @@
         <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3025,7 +3025,7 @@
         <v>201</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
@@ -3090,16 +3090,16 @@
         <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N22" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -3197,13 +3197,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -3221,7 +3221,7 @@
         <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3245,7 +3245,7 @@
         <v>9.5</v>
       </c>
       <c r="W23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
@@ -3272,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3322,16 +3322,16 @@
         <v>1.91</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3343,7 +3343,7 @@
         <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3388,7 +3388,7 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE24" t="n">
         <v>11</v>
@@ -3450,22 +3450,22 @@
         <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3498,13 +3498,13 @@
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
@@ -3513,7 +3513,7 @@
         <v>251</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3572,22 +3572,22 @@
         <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="O26" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="P26" t="n">
         <v>1.4</v>
@@ -4039,13 +4039,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H30" t="n">
         <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4056,7 +4056,7 @@
         <v>3.15</v>
       </c>
       <c r="N30" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O30" t="n">
         <v>1.7</v>
@@ -4074,16 +4074,16 @@
         <v>1.88</v>
       </c>
       <c r="T30" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U30" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="V30" t="n">
         <v>7.2</v>
       </c>
       <c r="W30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -4092,7 +4092,7 @@
         <v>22</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
@@ -4101,25 +4101,25 @@
         <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD30" t="n">
         <v>350</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
         <v>30</v>
@@ -4282,10 +4282,10 @@
         <v>1.27</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
         <v>1.02</v>
@@ -4318,7 +4318,7 @@
         <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
         <v>7</v>
@@ -4339,7 +4339,7 @@
         <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
         <v>21</v>
@@ -4360,10 +4360,10 @@
         <v>26</v>
       </c>
       <c r="AH32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="n">
         <v>51</v>
@@ -4404,16 +4404,16 @@
         <v>1.2</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
         <v>1.14</v>
@@ -4440,7 +4440,7 @@
         <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
         <v>6.5</v>
@@ -4455,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="n">
         <v>15</v>
@@ -4488,7 +4488,7 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -4645,52 +4645,52 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
         <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M35" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O35" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="P35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U35" t="n">
+        <v>9</v>
+      </c>
+      <c r="V35" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V35" t="n">
-        <v>9</v>
       </c>
       <c r="W35" t="n">
         <v>15</v>
@@ -4699,28 +4699,28 @@
         <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
@@ -4767,19 +4767,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="K36" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="L36" t="n">
         <v>1.13</v>
@@ -4833,16 +4833,16 @@
         <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD36" t="n">
         <v>81</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
         <v>10</v>
@@ -4851,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
         <v>19</v>
@@ -4889,46 +4889,46 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H37" t="n">
         <v>4.55</v>
       </c>
       <c r="I37" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M37" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O37" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="P37" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T37" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U37" t="n">
         <v>6.3</v>
@@ -4937,37 +4937,37 @@
         <v>8.25</v>
       </c>
       <c r="W37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y37" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG37" t="n">
         <v>26</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>27</v>
       </c>
       <c r="AH37" t="n">
         <v>250</v>
@@ -4976,7 +4976,7 @@
         <v>110</v>
       </c>
       <c r="AJ37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -5011,13 +5011,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H38" t="n">
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
@@ -5038,22 +5038,22 @@
         <v>2.1</v>
       </c>
       <c r="P38" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S38" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T38" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
@@ -5065,7 +5065,7 @@
         <v>11.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z38" t="n">
         <v>8.5</v>
@@ -5074,13 +5074,13 @@
         <v>9.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD38" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE38" t="n">
         <v>18.5</v>
@@ -5095,7 +5095,7 @@
         <v>150</v>
       </c>
       <c r="AI38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="n">
         <v>70</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -790,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -2232,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
         <v>1.11</v>
@@ -2244,79 +2244,79 @@
         <v>5.6</v>
       </c>
       <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.42</v>
       </c>
-      <c r="M15" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S15" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T15" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="U15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V15" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W15" t="n">
         <v>37</v>
       </c>
       <c r="X15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AF15" t="n">
         <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -2351,85 +2351,85 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="N16" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
         <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="U16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD16" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
         <v>50</v>
@@ -2438,7 +2438,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2476,10 +2476,10 @@
         <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J17" t="n">
         <v>1.11</v>
@@ -2491,19 +2491,19 @@
         <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R17" t="n">
         <v>1.95</v>
@@ -2512,31 +2512,31 @@
         <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="U17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W17" t="n">
         <v>50</v>
       </c>
       <c r="X17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="n">
         <v>5.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>90</v>
@@ -2545,22 +2545,22 @@
         <v>900</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AF17" t="n">
         <v>10.25</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH17" t="n">
         <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2595,32 +2595,32 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N18" t="n">
         <v>1.6</v>
       </c>
       <c r="O18" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
         <v>2.05</v>
@@ -2629,16 +2629,16 @@
         <v>8.75</v>
       </c>
       <c r="U18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
         <v>8.25</v>
       </c>
       <c r="W18" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
         <v>22</v>
@@ -2647,10 +2647,10 @@
         <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
         <v>55</v>
@@ -2659,22 +2659,22 @@
         <v>350</v>
       </c>
       <c r="AE18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2831,19 +2831,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2855,7 +2855,7 @@
         <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2873,7 +2873,7 @@
         <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V20" t="n">
         <v>12</v>
@@ -2903,7 +2903,7 @@
         <v>301</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
         <v>10</v>
@@ -3084,22 +3084,22 @@
         <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -3117,7 +3117,7 @@
         <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
@@ -3144,7 +3144,7 @@
         <v>67</v>
       </c>
       <c r="AD22" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE22" t="n">
         <v>9.5</v>
@@ -3162,7 +3162,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -3197,19 +3197,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3218,10 +3218,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3236,31 +3236,31 @@
         <v>1.95</v>
       </c>
       <c r="T23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
@@ -3269,10 +3269,10 @@
         <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3281,7 +3281,7 @@
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
         <v>41</v>
@@ -3328,10 +3328,10 @@
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3343,7 +3343,7 @@
         <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3352,13 +3352,13 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U24" t="n">
         <v>8.5</v>
@@ -3367,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="W24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3376,7 +3376,7 @@
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3391,19 +3391,19 @@
         <v>301</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
       </c>
       <c r="AH24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="n">
         <v>41</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>34</v>
       </c>
       <c r="AJ24" t="n">
         <v>41</v>
@@ -3450,10 +3450,10 @@
         <v>2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
         <v>1.29</v>
@@ -3462,10 +3462,10 @@
         <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O25" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3563,19 +3563,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
         <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L26" t="n">
         <v>1.25</v>
@@ -3590,25 +3590,25 @@
         <v>1.93</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U26" t="n">
         <v>9</v>
       </c>
       <c r="V26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W26" t="n">
         <v>15</v>
@@ -3620,7 +3620,7 @@
         <v>26</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
@@ -3629,10 +3629,10 @@
         <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -3697,19 +3697,19 @@
         <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -4039,13 +4039,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4053,13 +4053,13 @@
         <v>1.31</v>
       </c>
       <c r="M30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O30" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P30" t="n">
         <v>1.37</v>
@@ -4068,7 +4068,7 @@
         <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S30" t="n">
         <v>1.88</v>
@@ -4077,52 +4077,52 @@
         <v>5.8</v>
       </c>
       <c r="U30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W30" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
         <v>22</v>
       </c>
       <c r="Z30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE30" t="n">
         <v>9</v>
       </c>
-      <c r="AA30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -4157,94 +4157,94 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T31" t="n">
         <v>6.5</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T31" t="n">
-        <v>5</v>
-      </c>
       <c r="U31" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
         <v>19</v>
       </c>
       <c r="Y31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AE31" t="n">
         <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -4767,31 +4767,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J36" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L36" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="M36" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P36" t="n">
         <v>1.22</v>
@@ -4800,13 +4800,13 @@
         <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U36" t="n">
         <v>19</v>
@@ -4818,7 +4818,7 @@
         <v>29</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
         <v>21</v>
@@ -4827,7 +4827,7 @@
         <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB36" t="n">
         <v>11</v>
@@ -4836,7 +4836,7 @@
         <v>26</v>
       </c>
       <c r="AD36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -4845,10 +4845,10 @@
         <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
         <v>17</v>
@@ -5017,7 +5017,7 @@
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
@@ -5071,7 +5071,7 @@
         <v>8.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -656,22 +656,22 @@
         <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -707,10 +707,10 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -731,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
         <v>9.5</v>
@@ -963,16 +963,16 @@
         <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
@@ -1025,7 +1025,7 @@
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1046,16 +1046,16 @@
         <v>2.63</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
@@ -1067,10 +1067,10 @@
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1082,10 +1082,10 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1097,7 +1097,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O6" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O7" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -2012,43 +2012,43 @@
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.65</v>
       </c>
       <c r="T13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC13" t="n">
         <v>110</v>
@@ -2066,10 +2066,10 @@
         <v>11.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>50</v>
@@ -2351,94 +2351,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N16" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="U16" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V16" t="n">
         <v>8.75</v>
       </c>
       <c r="W16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z16" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD16" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH16" t="n">
         <v>50</v>
       </c>
       <c r="AI16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J17" t="n">
         <v>1.11</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.47</v>
@@ -2506,31 +2506,31 @@
         <v>2.37</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V17" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="W17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
         <v>45</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA17" t="n">
         <v>5.5</v>
@@ -2545,19 +2545,19 @@
         <v>900</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG17" t="n">
         <v>9.5</v>
       </c>
       <c r="AH17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI17" t="n">
         <v>24</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>23</v>
       </c>
       <c r="AJ17" t="n">
         <v>40</v>
@@ -2595,13 +2595,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I18" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2612,21 +2612,21 @@
         <v>3.7</v>
       </c>
       <c r="N18" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="O18" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U18" t="n">
         <v>9</v>
@@ -2638,37 +2638,37 @@
         <v>13.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB18" t="n">
         <v>14</v>
       </c>
-      <c r="AA18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD18" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI18" t="n">
         <v>35</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
@@ -3025,7 +3025,7 @@
         <v>201</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
@@ -3081,7 +3081,7 @@
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J22" t="n">
         <v>1.1</v>
@@ -3197,13 +3197,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -3319,13 +3319,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J24" t="n">
         <v>1.08</v>
@@ -3340,10 +3340,10 @@
         <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3394,7 +3394,7 @@
         <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4039,18 +4039,18 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
         <v>3.2</v>
@@ -4062,28 +4062,28 @@
         <v>1.72</v>
       </c>
       <c r="P30" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R30" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S30" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V30" t="n">
         <v>7</v>
       </c>
-      <c r="V30" t="n">
-        <v>7.1</v>
-      </c>
       <c r="W30" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X30" t="n">
         <v>12</v>
@@ -4092,7 +4092,7 @@
         <v>22</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA30" t="n">
         <v>5.8</v>
@@ -4101,25 +4101,25 @@
         <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD30" t="n">
         <v>400</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ30" t="n">
         <v>35</v>
@@ -4660,16 +4660,16 @@
         <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="U3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -820,13 +820,13 @@
         <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -841,10 +841,10 @@
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -853,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1266,22 +1266,22 @@
         <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1867,73 +1867,73 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="N12" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W12" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="X12" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
         <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="n">
         <v>101</v>
@@ -1942,19 +1942,19 @@
         <v>6</v>
       </c>
       <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10</v>
       </c>
-      <c r="AG12" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2024,7 +2024,7 @@
         <v>1.65</v>
       </c>
       <c r="T13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U13" t="n">
         <v>10.5</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="J15" t="n">
         <v>1.11</v>
@@ -2244,13 +2244,13 @@
         <v>5.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O15" t="n">
         <v>1.6</v>
@@ -2259,7 +2259,7 @@
         <v>1.42</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R15" t="n">
         <v>1.82</v>
@@ -2268,28 +2268,28 @@
         <v>1.78</v>
       </c>
       <c r="T15" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V15" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="W15" t="n">
+        <v>32</v>
+      </c>
+      <c r="X15" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y15" t="n">
         <v>37</v>
-      </c>
-      <c r="X15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>40</v>
       </c>
       <c r="Z15" t="n">
         <v>8</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2301,22 +2301,22 @@
         <v>700</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI15" t="n">
         <v>23</v>
       </c>
-      <c r="AI15" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -3197,19 +3197,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3218,10 +3218,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3230,16 +3230,16 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
       </c>
       <c r="U23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V23" t="n">
         <v>9</v>
@@ -3254,7 +3254,7 @@
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
@@ -3266,13 +3266,13 @@
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3319,25 +3319,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
         <v>2.08</v>
@@ -3346,10 +3346,10 @@
         <v>1.73</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R24" t="n">
         <v>1.91</v>
@@ -3370,13 +3370,13 @@
         <v>15</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3394,7 +3394,7 @@
         <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -3572,10 +3572,10 @@
         <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
         <v>1.25</v>
@@ -3950,10 +3950,10 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="S29" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T29" t="n">
         <v>30</v>
@@ -4039,33 +4039,33 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
         <v>1.38</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R30" t="n">
         <v>1.84</v>
@@ -4074,34 +4074,34 @@
         <v>1.86</v>
       </c>
       <c r="T30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U30" t="n">
         <v>6.8</v>
       </c>
       <c r="V30" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB30" t="n">
         <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD30" t="n">
         <v>400</v>
@@ -4110,19 +4110,19 @@
         <v>9.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -692,22 +692,22 @@
         <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
         <v>9.5</v>
@@ -966,13 +966,13 @@
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
@@ -1025,7 +1025,7 @@
         <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1412,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>41</v>
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
@@ -1528,10 +1528,10 @@
         <v>2.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R9" t="n">
         <v>1.57</v>
@@ -1540,7 +1540,7 @@
         <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
         <v>9.5</v>
@@ -1549,19 +1549,19 @@
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
         <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
         <v>13</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
@@ -1656,61 +1656,61 @@
         <v>4.33</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE10" t="n">
         <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
         <v>151</v>
       </c>
       <c r="AI10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -2000,31 +2000,31 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="N13" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U13" t="n">
         <v>10.5</v>
@@ -2042,37 +2042,37 @@
         <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
         <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD13" t="n">
         <v>900</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>37</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2229,94 +2229,94 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="K15" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="N15" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="O15" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="U15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V15" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="W15" t="n">
         <v>32</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AD15" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AF15" t="n">
         <v>11.75</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
         <v>2.95</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>1.08</v>
@@ -2381,31 +2381,31 @@
         <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U16" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="V16" t="n">
         <v>8.75</v>
       </c>
       <c r="W16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
         <v>6.4</v>
@@ -2414,7 +2414,7 @@
         <v>5.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>65</v>
@@ -2423,19 +2423,19 @@
         <v>500</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
         <v>37</v>
@@ -3075,19 +3075,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
         <v>1.4</v>
@@ -3096,10 +3096,10 @@
         <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -3117,16 +3117,16 @@
         <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
         <v>9</v>
       </c>
       <c r="W22" t="n">
+        <v>15</v>
+      </c>
+      <c r="X22" t="n">
         <v>17</v>
-      </c>
-      <c r="X22" t="n">
-        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
@@ -3144,10 +3144,10 @@
         <v>67</v>
       </c>
       <c r="AD22" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3156,13 +3156,13 @@
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
@@ -3197,19 +3197,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3218,10 +3218,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3254,7 +3254,7 @@
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
@@ -3272,10 +3272,10 @@
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>41</v>
@@ -3322,7 +3322,7 @@
         <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>5</v>
@@ -3340,10 +3340,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3388,10 +3388,10 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
         <v>23</v>
@@ -3444,7 +3444,7 @@
         <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
         <v>2.3</v>
@@ -3456,31 +3456,31 @@
         <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O25" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U25" t="n">
         <v>15</v>
@@ -3492,28 +3492,28 @@
         <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
         <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -3528,7 +3528,7 @@
         <v>19</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
@@ -3623,7 +3623,7 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB26" t="n">
         <v>13</v>
@@ -3638,7 +3638,7 @@
         <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
@@ -3647,7 +3647,7 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
@@ -4039,90 +4039,90 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H30" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="I30" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="N30" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="P30" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="R30" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="S30" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="T30" t="n">
-        <v>5.8</v>
+        <v>4.85</v>
       </c>
       <c r="U30" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="V30" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X30" t="n">
-        <v>11.25</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -4413,7 +4413,7 @@
         <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
         <v>1.14</v>
@@ -4714,7 +4714,7 @@
         <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE35" t="n">
         <v>13</v>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
         <v>2.4</v>
@@ -4788,16 +4788,16 @@
         <v>6.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R36" t="n">
         <v>1.36</v>
@@ -4821,28 +4821,28 @@
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
         <v>8.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD36" t="n">
         <v>67</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1290,16 +1290,16 @@
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V7" t="n">
         <v>11</v>
@@ -1314,13 +1314,13 @@
         <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>41</v>
@@ -1329,7 +1329,7 @@
         <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1391,7 +1391,7 @@
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1400,7 +1400,7 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1516,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N9" t="n">
         <v>1.53</v>
@@ -1534,13 +1534,13 @@
         <v>3.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
         <v>9.5</v>
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
         <v>17</v>
@@ -1570,13 +1570,13 @@
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1623,31 +1623,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I10" t="n">
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P10" t="n">
         <v>1.2</v>
@@ -1668,7 +1668,7 @@
         <v>7.5</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
         <v>8</v>
@@ -1945,10 +1945,10 @@
         <v>9</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2006,7 +2006,7 @@
         <v>2.42</v>
       </c>
       <c r="N13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2015,7 +2015,7 @@
         <v>1.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
         <v>1.93</v>
@@ -2024,7 +2024,7 @@
         <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U13" t="n">
         <v>10.5</v>
@@ -2048,7 +2048,7 @@
         <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
         <v>100</v>
@@ -2063,7 +2063,7 @@
         <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH13" t="n">
         <v>37</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
         <v>2.92</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="J15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -2247,19 +2247,19 @@
         <v>1.47</v>
       </c>
       <c r="M15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N15" t="n">
         <v>2.35</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.32</v>
       </c>
       <c r="O15" t="n">
         <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
         <v>1.98</v>
@@ -2268,22 +2268,22 @@
         <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="U15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V15" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="n">
         <v>6.6</v>
@@ -2292,7 +2292,7 @@
         <v>5.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
         <v>110</v>
@@ -2301,19 +2301,19 @@
         <v>800</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>45</v>
@@ -2718,10 +2718,10 @@
         <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2730,13 +2730,13 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
@@ -2858,10 +2858,10 @@
         <v>1.7</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R20" t="n">
         <v>1.91</v>
@@ -2974,13 +2974,13 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>1.6</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
         <v>2.5</v>
@@ -3209,7 +3209,7 @@
         <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3224,10 +3224,10 @@
         <v>1.73</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R23" t="n">
         <v>1.91</v>
@@ -3319,34 +3319,34 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O24" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q24" t="n">
         <v>2.75</v>
@@ -3361,13 +3361,13 @@
         <v>7</v>
       </c>
       <c r="U24" t="n">
+        <v>8</v>
+      </c>
+      <c r="V24" t="n">
         <v>8.5</v>
       </c>
-      <c r="V24" t="n">
-        <v>9</v>
-      </c>
       <c r="W24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3376,10 +3376,10 @@
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -3394,10 +3394,10 @@
         <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
@@ -3929,10 +3929,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I29" t="n">
         <v>1.17</v>
@@ -3950,55 +3950,55 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U29" t="n">
+        <v>80</v>
+      </c>
+      <c r="V29" t="n">
+        <v>32</v>
+      </c>
+      <c r="W29" t="n">
+        <v>300</v>
+      </c>
+      <c r="X29" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y29" t="n">
         <v>90</v>
       </c>
-      <c r="V29" t="n">
-        <v>35</v>
-      </c>
-      <c r="W29" t="n">
-        <v>350</v>
-      </c>
-      <c r="X29" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>100</v>
-      </c>
       <c r="Z29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB29" t="n">
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD29" t="n">
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF29" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -4039,90 +4039,90 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M30" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="O30" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="R30" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="S30" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="U30" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="V30" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="W30" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD30" t="n">
         <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>50</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         <v>19</v>
       </c>
       <c r="L32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N32" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O32" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
@@ -4413,7 +4413,7 @@
         <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
         <v>1.14</v>
@@ -4440,7 +4440,7 @@
         <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
         <v>6.5</v>
@@ -4455,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="n">
         <v>15</v>
@@ -4467,7 +4467,7 @@
         <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD33" t="n">
         <v>351</v>
@@ -4645,13 +4645,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
         <v>1.04</v>
@@ -4687,16 +4687,16 @@
         <v>8</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V35" t="n">
         <v>8.5</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>23</v>
@@ -4711,7 +4711,7 @@
         <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD35" t="n">
         <v>600</v>
@@ -4767,19 +4767,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
         <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J36" t="n">
+        <v>23</v>
+      </c>
+      <c r="K36" t="n">
         <v>1.02</v>
-      </c>
-      <c r="K36" t="n">
-        <v>12</v>
       </c>
       <c r="L36" t="n">
         <v>1.1</v>
@@ -4842,7 +4842,7 @@
         <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -5011,13 +5011,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="I38" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
@@ -5044,28 +5044,28 @@
         <v>3.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S38" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U38" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V38" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W38" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
         <v>11.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z38" t="n">
         <v>8.5</v>
@@ -5074,7 +5074,7 @@
         <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC38" t="n">
         <v>90</v>
@@ -5089,16 +5089,16 @@
         <v>45</v>
       </c>
       <c r="AG38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH38" t="n">
         <v>150</v>
       </c>
       <c r="AI38" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -924,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
         <v>9.5</v>
@@ -966,13 +966,13 @@
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI4" t="n">
         <v>51</v>
@@ -1162,10 +1162,10 @@
         <v>1.9</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>1.75</v>
@@ -1192,25 +1192,25 @@
         <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="n">
         <v>201</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>34</v>
@@ -1272,16 +1272,16 @@
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1400,10 +1400,10 @@
         <v>3.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L9" t="n">
         <v>1.14</v>
@@ -1522,10 +1522,10 @@
         <v>5.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.25</v>
@@ -1632,22 +1632,22 @@
         <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P10" t="n">
         <v>1.2</v>
@@ -2042,13 +2042,13 @@
         <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA13" t="n">
         <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
         <v>100</v>
@@ -2057,10 +2057,10 @@
         <v>900</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11.25</v>
@@ -2718,10 +2718,10 @@
         <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2730,13 +2730,13 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
@@ -2831,13 +2831,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
         <v>1.07</v>
@@ -2846,10 +2846,10 @@
         <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
         <v>2.1</v>
@@ -2858,10 +2858,10 @@
         <v>1.7</v>
       </c>
       <c r="P20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
         <v>1.91</v>
@@ -2873,7 +2873,7 @@
         <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V20" t="n">
         <v>12</v>
@@ -2903,7 +2903,7 @@
         <v>301</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
         <v>10</v>
@@ -2974,13 +2974,13 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O21" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
@@ -3102,7 +3102,7 @@
         <v>1.6</v>
       </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
         <v>2.5</v>
@@ -3206,10 +3206,10 @@
         <v>4.33</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3224,10 +3224,10 @@
         <v>1.73</v>
       </c>
       <c r="P23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
         <v>1.91</v>
@@ -3319,19 +3319,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
@@ -3346,16 +3346,16 @@
         <v>1.88</v>
       </c>
       <c r="P24" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
@@ -3373,10 +3373,10 @@
         <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -3584,10 +3584,10 @@
         <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P26" t="n">
         <v>1.36</v>
@@ -3706,10 +3706,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3828,10 +3828,10 @@
         <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O28" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P28" t="n">
         <v>1.33</v>
@@ -3950,10 +3950,10 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="S29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T29" t="n">
         <v>28</v>
@@ -4039,90 +4039,90 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
-        <v>2.55</v>
+        <v>2.27</v>
       </c>
       <c r="N30" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="R30" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="T30" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="U30" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z30" t="n">
         <v>7.5</v>
       </c>
-      <c r="W30" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X30" t="n">
+      <c r="AA30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB30" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y30" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>16</v>
-      </c>
       <c r="AC30" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="n">
         <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -4401,19 +4401,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H33" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I33" t="n">
         <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L33" t="n">
         <v>1.14</v>
@@ -4434,19 +4434,19 @@
         <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W33" t="n">
         <v>7</v>
@@ -4455,40 +4455,40 @@
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="n">
         <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="n">
         <v>351</v>
       </c>
       <c r="AE33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>81</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="34">

--- a/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-01.xlsx
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -1028,10 +1028,10 @@
         <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N5" t="n">
         <v>2.25</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
         <v>1.14</v>
@@ -1522,10 +1522,10 @@
         <v>5.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P9" t="n">
         <v>1.25</v>
@@ -2024,10 +2024,10 @@
         <v>1.7</v>
       </c>
       <c r="T13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U13" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V13" t="n">
         <v>9.75</v>
@@ -2036,19 +2036,19 @@
         <v>25</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
         <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
         <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
         <v>100</v>
@@ -2057,7 +2057,7 @@
         <v>900</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF13" t="n">
         <v>13.5</v>
@@ -2595,13 +2595,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>4.15</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2623,34 +2623,34 @@
         <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T18" t="n">
         <v>9.25</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="V18" t="n">
         <v>8.25</v>
       </c>
       <c r="W18" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
         <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>50</v>
@@ -2659,22 +2659,22 @@
         <v>300</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI18" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2974,10 +2974,10 @@
         <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P21" t="n">
         <v>1.36</v>
@@ -3096,10 +3096,10 @@
         <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
@@ -3456,16 +3456,16 @@
         <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -4039,13 +4039,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -4062,13 +4062,13 @@
         <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R30" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="S30" t="n">
         <v>1.68</v>
@@ -4077,49 +4077,49 @@
         <v>4.9</v>
       </c>
       <c r="U30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="V30" t="n">
         <v>7.2</v>
       </c>
       <c r="W30" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
         <v>27</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="n">
         <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="n">
         <v>45</v>
@@ -5011,94 +5011,94 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M38" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="N38" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O38" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P38" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="V38" t="n">
         <v>8.25</v>
       </c>
       <c r="W38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z38" t="n">
         <v>9</v>
       </c>
-      <c r="X38" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC38" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH38" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
